--- a/jobsFound.xlsx
+++ b/jobsFound.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-ii-7?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/programator-179?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/automation-programmer-2?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/integration-engineer-19?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/entry-level-python-developer-3?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-java-10?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/embedded-software-engineer-96?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/c-developer-270?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/analist-programator-in-domeniul-software-2?offset=0&amp;sid=225198950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/web-developer-478?offset=0&amp;sid=225198950</x:t>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-ii-7?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/programator-179?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/automation-programmer-2?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/integration-engineer-19?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/entry-level-python-developer-3?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-java-10?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/embedded-software-engineer-96?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/c-developer-270?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/analist-programator-in-domeniul-software-2?offset=0&amp;sid=225311402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/data-engineer-100?offset=0&amp;sid=225311402</x:t>
   </x:si>
 </x:sst>
 </file>
